--- a/Requirements/Project Tracking.xlsx
+++ b/Requirements/Project Tracking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\Project SWP\SWP-Project\Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9861003C-36ED-42E2-B3EA-D00252255D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA7A6F9-9625-45F8-9840-726132EFCCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="18" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Iter3!$A$5:$D$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Iter4!$A$5:$D$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Project!$A$3:$E$6</definedName>
+    <definedName name="SRS">Iter1!$G$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,39 +50,6 @@
     <author>KienNT</author>
   </authors>
   <commentList>
-    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{CE1BD605-93DF-A44D-BB2F-D167C56E81F2}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>KienNT:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>The name of section in the SRS (software requirement specification) document</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="H5" authorId="0" shapeId="0" xr:uid="{FDBB913F-3767-2341-8B75-7CAA907B91F5}">
       <text>
         <r>
@@ -348,7 +316,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="97">
   <si>
     <t>#</t>
   </si>
@@ -606,6 +574,39 @@
   </si>
   <si>
     <t>Admin can view game detail information. View the game’s income, downloads, rate, comments, … Admin can also delete the game if the game violated the rule.</t>
+  </si>
+  <si>
+    <t>Mạnh</t>
+  </si>
+  <si>
+    <t>Doing</t>
+  </si>
+  <si>
+    <t>Hoàng Anh</t>
+  </si>
+  <si>
+    <t>Duy</t>
+  </si>
+  <si>
+    <t>II.1a</t>
+  </si>
+  <si>
+    <t>II.2a</t>
+  </si>
+  <si>
+    <t>II.2b</t>
+  </si>
+  <si>
+    <t>II.2c</t>
+  </si>
+  <si>
+    <t>II.2d</t>
+  </si>
+  <si>
+    <t>II.4a</t>
+  </si>
+  <si>
+    <t>II.4b</t>
   </si>
 </sst>
 </file>
@@ -758,7 +759,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -834,6 +835,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1058,9 +1071,9 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1068,7 +1081,7 @@
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.77734375" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="50.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.77734375" style="2" bestFit="1" customWidth="1"/>
@@ -1679,11 +1692,11 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1694,7 +1707,7 @@
     <col min="4" max="4" width="38.44140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="27" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" style="2" customWidth="1"/>
     <col min="9" max="9" width="49.6640625" style="2" customWidth="1"/>
     <col min="10" max="10" width="10.77734375" style="2" customWidth="1"/>
@@ -1740,83 +1753,228 @@
       <c r="F5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="26" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <f>ROW()-5</f>
+    <row r="6" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="22">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>16</v>
+      <c r="B6" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>80</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="13"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <f>ROW()-5</f>
+    <row r="7" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="22">
         <v>2</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>16</v>
+      <c r="B7" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>81</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="24">
+        <v>3</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="29"/>
+    </row>
+    <row r="9" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="22">
+        <v>4</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="29"/>
+    </row>
+    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="24">
+        <v>5</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="29"/>
+    </row>
+    <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="24">
+        <v>6</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="4"/>
+      <c r="G11" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="29"/>
+    </row>
+    <row r="12" spans="1:9" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="24">
+        <v>5</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="29"/>
+    </row>
+    <row r="13" spans="1:9" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="24">
+        <v>6</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="29"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F7" xr:uid="{09BD9405-1D51-984F-8633-B4656AF8DDB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F13" xr:uid="{09BD9405-1D51-984F-8633-B4656AF8DDB5}">
       <formula1>"To Do, Doing, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:H7" xr:uid="{FEBDB719-C372-D545-A2E0-386465A384D9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H13" xr:uid="{FEBDB719-C372-D545-A2E0-386465A384D9}">
       <formula1>"Pending, Doing, Done"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Requirements/Project Tracking.xlsx
+++ b/Requirements/Project Tracking.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\Project SWP\SWP-Project\Requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\Project SWP\SWP391_SE1630NET_GROUP4\Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA7A6F9-9625-45F8-9840-726132EFCCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55316214-ED59-41E3-A9A9-DECF9E3F4B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="18" r:id="rId1"/>
@@ -316,7 +316,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="124">
   <si>
     <t>#</t>
   </si>
@@ -607,6 +607,87 @@
   </si>
   <si>
     <t>II.4b</t>
+  </si>
+  <si>
+    <t>Register to be a developer</t>
+  </si>
+  <si>
+    <t>This function allows user to register to be a game developer if they accept the page's owner rules</t>
+  </si>
+  <si>
+    <t>Allow user with account to withdraw or insert money.</t>
+  </si>
+  <si>
+    <t>Allow user to view detail information of a game</t>
+  </si>
+  <si>
+    <t>Mainscreen</t>
+  </si>
+  <si>
+    <t>IsPrivate</t>
+  </si>
+  <si>
+    <t>Allow user to hide their information(set it private).</t>
+  </si>
+  <si>
+    <t>Quân</t>
+  </si>
+  <si>
+    <t>Update mainscreen's paging</t>
+  </si>
+  <si>
+    <t>Updating filter and sorting</t>
+  </si>
+  <si>
+    <t>Buy game function</t>
+  </si>
+  <si>
+    <t>Allow user with account to buy games.</t>
+  </si>
+  <si>
+    <t>Allow user with account to view their transactions</t>
+  </si>
+  <si>
+    <t>Edit user information</t>
+  </si>
+  <si>
+    <t>Allow user to edit their account's information</t>
+  </si>
+  <si>
+    <t>Allow user to change their account's password</t>
+  </si>
+  <si>
+    <t>User information</t>
+  </si>
+  <si>
+    <t>Allow user to view their account's information</t>
+  </si>
+  <si>
+    <t>II.2.b</t>
+  </si>
+  <si>
+    <t>II.2.c</t>
+  </si>
+  <si>
+    <t>II.2.a</t>
+  </si>
+  <si>
+    <t>II.4.a</t>
+  </si>
+  <si>
+    <t>II.4.b</t>
+  </si>
+  <si>
+    <t>II.4.c</t>
+  </si>
+  <si>
+    <t>II.4.d</t>
+  </si>
+  <si>
+    <t>II.4.e</t>
+  </si>
+  <si>
+    <t>II.4.g</t>
   </si>
 </sst>
 </file>
@@ -759,7 +840,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -847,6 +928,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1694,9 +1790,9 @@
   </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1927,7 +2023,7 @@
         <v>63</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>22</v>
@@ -1983,11 +2079,11 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2054,68 +2150,350 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
         <f>ROW()-5</f>
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>19</v>
+      <c r="B6" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="4"/>
+      <c r="G6" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="30">
         <f>ROW()-5</f>
         <v>2</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>19</v>
+      <c r="B7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="E7" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" s="32"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="33">
+        <v>3</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+    </row>
+    <row r="9" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="33">
+        <v>4</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="33">
+        <v>5</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="33">
+        <v>6</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+    </row>
+    <row r="12" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="33"/>
+      <c r="B12" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+    </row>
+    <row r="13" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
+      <c r="B13" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+    </row>
+    <row r="14" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="33">
+        <v>7</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="33">
+        <v>8</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+    </row>
+    <row r="16" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="33">
+        <v>9</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="33">
         <v>10</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="4"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="33">
+        <v>11</v>
+      </c>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="33">
+        <v>12</v>
+      </c>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="33">
+        <v>13</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="33">
+        <v>14</v>
+      </c>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:H7" xr:uid="{6510EF55-36A9-8246-8C63-D0015C9510E4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H7" xr:uid="{6510EF55-36A9-8246-8C63-D0015C9510E4}">
       <formula1>"Pending, Doing, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F7" xr:uid="{A5D8D347-9BA0-8742-9848-E52BE7233794}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F14" xr:uid="{AF005037-A348-4893-9307-372C8F9EC676}">
       <formula1>"To Do, Doing, Done"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Requirements/Project Tracking.xlsx
+++ b/Requirements/Project Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\Project SWP\SWP391_SE1630NET_GROUP4\Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55316214-ED59-41E3-A9A9-DECF9E3F4B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4A8670-55C4-4D50-A007-341BF06F9466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="18" r:id="rId1"/>
@@ -316,7 +316,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="143">
   <si>
     <t>#</t>
   </si>
@@ -688,6 +688,63 @@
   </si>
   <si>
     <t>II.4.g</t>
+  </si>
+  <si>
+    <t>Rate games</t>
+  </si>
+  <si>
+    <t>Leave comment for games</t>
+  </si>
+  <si>
+    <t>This function allows users rate the game and see average rates of games</t>
+  </si>
+  <si>
+    <t>This function allows users leave comment for games and read others' comments.</t>
+  </si>
+  <si>
+    <t>Game details manager</t>
+  </si>
+  <si>
+    <t>This screen allows admin view all the game details and game's income</t>
+  </si>
+  <si>
+    <t>Notifications</t>
+  </si>
+  <si>
+    <t>Request details manager</t>
+  </si>
+  <si>
+    <t>This screen allows user view notifications about account balance changes, …</t>
+  </si>
+  <si>
+    <t>This screen allows admin view the request details and provide some action to the request like delete, response, reject, approve</t>
+  </si>
+  <si>
+    <t>This screen allows admin to send message to the user</t>
+  </si>
+  <si>
+    <t>Admin screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quân </t>
+  </si>
+  <si>
+    <t>Private information</t>
+  </si>
+  <si>
+    <t>Search transaction history</t>
+  </si>
+  <si>
+    <t>This screen allows admin to view, links to other functions</t>
+  </si>
+  <si>
+    <t>This function allows user to hide their account's information from other users</t>
+  </si>
+  <si>
+    <t>This screen allows user view their account's transaction history</t>
+  </si>
+  <si>
+    <t>This function allows user search transaction history</t>
   </si>
 </sst>
 </file>
@@ -2081,7 +2138,7 @@
   </sheetPr>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
@@ -2507,11 +2564,11 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2579,60 +2636,247 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="30">
         <f>ROW()-5</f>
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>19</v>
+      <c r="B6" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="30">
         <f>ROW()-5</f>
         <v>2</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>19</v>
+      <c r="B7" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="E7" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="33">
+        <v>3</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+    </row>
+    <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="33">
+        <v>4</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+    </row>
+    <row r="10" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="33">
+        <v>5</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+    </row>
+    <row r="11" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="33">
+        <v>6</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+    </row>
+    <row r="12" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="33">
+        <v>7</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+    </row>
+    <row r="13" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="33">
+        <v>8</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+    </row>
+    <row r="14" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="33">
+        <v>9</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+    </row>
+    <row r="15" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="33">
         <v>10</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="4"/>
+      <c r="B15" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="33"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -2644,7 +2888,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Requirements/Project Tracking.xlsx
+++ b/Requirements/Project Tracking.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\Project SWP\SWP391_SE1630NET_GROUP4\Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4A8670-55C4-4D50-A007-341BF06F9466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC0CB9C-2F5A-4FB4-87F8-BACEB51AE92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="18" r:id="rId1"/>
     <sheet name="Iter1" sheetId="25" r:id="rId2"/>
     <sheet name="Iter2" sheetId="20" r:id="rId3"/>
     <sheet name="Iter3" sheetId="24" r:id="rId4"/>
-    <sheet name="Iter4" sheetId="26" r:id="rId5"/>
+    <sheet name="Iter4" sheetId="27" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Iter1!$A$5:$D$7</definedName>
@@ -245,7 +245,7 @@
     <author>KienNT</author>
   </authors>
   <commentList>
-    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{1C45379F-C769-2948-84D9-127C0F1F6B04}">
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{76C80DB2-A3BB-4F4F-B683-148C40534B80}">
       <text>
         <r>
           <rPr>
@@ -278,7 +278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{C5D50EC1-D0DD-F548-808A-4E7D7EF783F0}">
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{064ED765-E6CA-42FD-8DBD-6BB5F4A392D6}">
       <text>
         <r>
           <rPr>
@@ -316,7 +316,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="139">
   <si>
     <t>#</t>
   </si>
@@ -339,24 +339,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>II.1</t>
-  </si>
-  <si>
-    <t>III.4</t>
-  </si>
-  <si>
-    <t>Tuấn Hà</t>
-  </si>
-  <si>
-    <t>Tử Vinh</t>
-  </si>
-  <si>
-    <t>II.3</t>
-  </si>
-  <si>
-    <t>III.5</t>
-  </si>
-  <si>
     <t>SRS</t>
   </si>
   <si>
@@ -366,24 +348,12 @@
     <t>Actual</t>
   </si>
   <si>
-    <t>This is short descripiton for the screen/function (2-3 sentences)</t>
-  </si>
-  <si>
     <t>Updated</t>
   </si>
   <si>
     <t>Done</t>
   </si>
   <si>
-    <t>Feature Name1</t>
-  </si>
-  <si>
-    <t>Screen/Function Name2</t>
-  </si>
-  <si>
-    <t>Screen/Function Name1</t>
-  </si>
-  <si>
     <t>To Do</t>
   </si>
   <si>
@@ -420,9 +390,6 @@
     <t>Iteration Tracking - Iteration 3</t>
   </si>
   <si>
-    <t>Iteration Tracking - Iteration 4</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
@@ -745,6 +712,27 @@
   </si>
   <si>
     <t>This function allows user search transaction history</t>
+  </si>
+  <si>
+    <t>See all comments</t>
+  </si>
+  <si>
+    <t>Forgot password</t>
+  </si>
+  <si>
+    <t>This function allows user to get back their password incase they forgot through email</t>
+  </si>
+  <si>
+    <t>This screen allows user view all the game comments</t>
+  </si>
+  <si>
+    <t>Manage report</t>
+  </si>
+  <si>
+    <t>This screen allows admin to manage users</t>
+  </si>
+  <si>
+    <t>This screen allows admin to manage reports.</t>
   </si>
 </sst>
 </file>
@@ -897,16 +885,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1244,580 +1229,580 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>27</v>
+      <c r="A1" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>26</v>
+      <c r="A2" s="10" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>24</v>
+      <c r="H3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="22">
+      <c r="A4" s="21">
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="B4" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
+      <c r="A5" s="21">
         <f>ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="B5" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="22">
+      <c r="A6" s="21">
         <f>ROW()-3</f>
         <v>3</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="21">
+        <v>4</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>5</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>6</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>7</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>8</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="23">
+        <v>9</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="23">
+        <v>10</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="23">
+        <v>11</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="23">
+        <v>12</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="23">
+        <v>13</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="23">
+        <v>14</v>
+      </c>
+      <c r="B17" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="20" t="s">
+      <c r="C17" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="23">
+        <v>15</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="22">
-        <v>4</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-    </row>
-    <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
-        <v>5</v>
-      </c>
-      <c r="B8" s="19" t="s">
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="23">
+        <v>16</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="21" t="s">
+      <c r="C19" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="23">
+        <v>17</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="23">
+        <v>18</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-    </row>
-    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
-        <v>6</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="21" t="s">
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="23">
+        <v>19</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+    </row>
+    <row r="23" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="23">
+        <v>20</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-    </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
-        <v>7</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="21" t="s">
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="23">
+        <v>21</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-    </row>
-    <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
-        <v>8</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="21" t="s">
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A25" s="23">
+        <v>22</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-    </row>
-    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
-        <v>9</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="21" t="s">
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="23">
+        <v>23</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-    </row>
-    <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
-        <v>10</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="21" t="s">
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+    </row>
+    <row r="27" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A27" s="23">
+        <v>24</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-    </row>
-    <row r="14" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
-        <v>11</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-    </row>
-    <row r="15" spans="1:10" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
-        <v>12</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-    </row>
-    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
-        <v>13</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-    </row>
-    <row r="17" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
-        <v>14</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-    </row>
-    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
-        <v>15</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-    </row>
-    <row r="19" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="24">
-        <v>16</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-    </row>
-    <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="24">
-        <v>17</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-    </row>
-    <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
-        <v>18</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-    </row>
-    <row r="22" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="24">
-        <v>19</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-    </row>
-    <row r="23" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
-        <v>20</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-    </row>
-    <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="24">
-        <v>21</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-    </row>
-    <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
-        <v>22</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-    </row>
-    <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="24">
-        <v>23</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-    </row>
-    <row r="27" spans="1:10" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="24">
-        <v>24</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
+      <c r="A28" s="24"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:E6" xr:uid="{B8AA5C6C-6EE6-6E48-9C21-DBA13AAA45A8}"/>
@@ -1860,7 +1845,7 @@
     <col min="4" max="4" width="38.44140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="27" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="26" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" style="2" customWidth="1"/>
     <col min="9" max="9" width="49.6640625" style="2" customWidth="1"/>
     <col min="10" max="10" width="10.77734375" style="2" customWidth="1"/>
@@ -1868,253 +1853,253 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>32</v>
+      <c r="A1" s="11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="21">
+        <v>1</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="21">
+        <v>2</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>3</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="C8" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="28"/>
+    </row>
+    <row r="9" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="21">
+        <v>4</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="28"/>
+    </row>
+    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>5</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="28"/>
+    </row>
+    <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>6</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="28"/>
+    </row>
+    <row r="12" spans="1:9" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="23">
+        <v>5</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="28"/>
+    </row>
+    <row r="13" spans="1:9" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="23">
+        <v>6</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="22">
-        <v>1</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="22">
-        <v>2</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
-        <v>3</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="29"/>
-    </row>
-    <row r="9" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="22">
-        <v>4</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="20" t="s">
+      <c r="C13" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="29"/>
-    </row>
-    <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
-        <v>5</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="29"/>
-    </row>
-    <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
-        <v>6</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="29"/>
-    </row>
-    <row r="12" spans="1:9" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
-        <v>5</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="29"/>
-    </row>
-    <row r="13" spans="1:9" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
-        <v>6</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="29"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="28"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -2159,391 +2144,391 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>28</v>
+      <c r="A1" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>30</v>
+      <c r="A2" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>29</v>
+      <c r="A3" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>31</v>
+      <c r="A4" s="10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="G5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="30">
+      <c r="A6" s="29">
         <f>ROW()-5</f>
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="5"/>
+      <c r="B6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="30"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
+      <c r="A7" s="29">
         <f>ROW()-5</f>
         <v>2</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="B7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" s="31"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="32">
+        <v>3</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+    </row>
+    <row r="9" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="32">
+        <v>4</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="32">
+        <v>5</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="32">
+        <v>6</v>
+      </c>
+      <c r="B11" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="33">
-        <v>3</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="34" t="s">
+      <c r="C11" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-    </row>
-    <row r="9" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="33">
-        <v>4</v>
-      </c>
-      <c r="B9" s="34" t="s">
+      <c r="E11" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+    </row>
+    <row r="12" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="32"/>
+      <c r="B12" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="33">
-        <v>5</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="33">
-        <v>6</v>
-      </c>
-      <c r="B11" s="34" t="s">
+      <c r="E12" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+    </row>
+    <row r="13" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="32"/>
+      <c r="B13" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+    </row>
+    <row r="14" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="32">
+        <v>7</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="32">
+        <v>8</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+    </row>
+    <row r="16" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="32">
+        <v>9</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-    </row>
-    <row r="12" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-    </row>
-    <row r="13" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-    </row>
-    <row r="14" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="33">
-        <v>7</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="33">
-        <v>8</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-    </row>
-    <row r="16" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="33">
-        <v>9</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="33">
+      <c r="A17" s="32">
         <v>10</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="33">
+      <c r="A18" s="32">
         <v>11</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="33">
+      <c r="A19" s="32">
         <v>12</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="33">
+      <c r="A20" s="32">
         <v>13</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="33">
+      <c r="A21" s="32">
         <v>14</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -2566,7 +2551,7 @@
   </sheetPr>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
@@ -2587,296 +2572,296 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>33</v>
+      <c r="A1" s="11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>30</v>
+      <c r="A2" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>29</v>
+      <c r="A3" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>31</v>
+      <c r="A4" s="10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="G5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="30">
+      <c r="A6" s="29">
         <f>ROW()-5</f>
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="5"/>
+      <c r="B6" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
+      <c r="A7" s="29">
         <f>ROW()-5</f>
         <v>2</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="32">
+        <v>3</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+    </row>
+    <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="32">
+        <v>4</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+    </row>
+    <row r="10" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="32">
+        <v>5</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+    </row>
+    <row r="11" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="32">
+        <v>6</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+    </row>
+    <row r="12" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="32">
+        <v>7</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+    </row>
+    <row r="13" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="32">
+        <v>8</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+    </row>
+    <row r="14" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="32">
+        <v>9</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="F14" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+    </row>
+    <row r="15" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="32">
+        <v>10</v>
+      </c>
+      <c r="B15" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="33">
-        <v>3</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-    </row>
-    <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="33">
-        <v>4</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-    </row>
-    <row r="10" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="33">
-        <v>5</v>
-      </c>
-      <c r="B10" s="34" t="s">
+      <c r="C15" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-    </row>
-    <row r="11" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="33">
-        <v>6</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-    </row>
-    <row r="12" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="33">
-        <v>7</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-    </row>
-    <row r="13" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="33">
-        <v>8</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-    </row>
-    <row r="14" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="33">
-        <v>9</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-    </row>
-    <row r="15" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="33">
-        <v>10</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
+      <c r="E15" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -2894,15 +2879,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536E199E-9D81-B64D-873F-22D26C193158}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E940520-741E-4946-8167-539F45B92804}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2921,120 +2906,296 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>34</v>
+      <c r="A1" s="11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>30</v>
+      <c r="A2" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>29</v>
+      <c r="A3" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>31</v>
+      <c r="A4" s="10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="G5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="29">
         <f>ROW()-5</f>
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>9</v>
+        <v>49</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="29">
         <f>ROW()-5</f>
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>10</v>
+        <v>49</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="32">
+        <v>3</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+    </row>
+    <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="32">
+        <v>4</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="32">
+        <v>5</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="32">
+        <v>6</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+    </row>
+    <row r="12" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="32">
         <v>7</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="B12" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+    </row>
+    <row r="13" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="32">
         <v>8</v>
       </c>
-      <c r="I7" s="4"/>
+      <c r="B13" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+    </row>
+    <row r="14" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="32">
+        <v>9</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="32"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="32"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:H7" xr:uid="{020D1B51-CD3A-2943-AB65-9B13706510E3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:H7" xr:uid="{323CA044-A585-436E-9ED3-727D0921647D}">
       <formula1>"Pending, Doing, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F7" xr:uid="{0794C8CF-BD46-074C-9567-48DDEA4001EF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F7" xr:uid="{5E65C10F-5CA9-4C67-A43B-4036CE31EB57}">
       <formula1>"To Do, Doing, Done"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>